--- a/AC3D_Hybrid/hybrid_ac3d/MBE3d_results/ah3d_relL2_tables.xlsx
+++ b/AC3D_Hybrid/hybrid_ac3d/MBE3d_results/ah3d_relL2_tables.xlsx
@@ -225,19 +225,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.35999999999999999</v>
+        <v>0.26000000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>0.57999999999999996</v>
+        <v>0.41999999999999998</v>
       </c>
       <c r="E2" s="0">
-        <v>0.70999999999999996</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F2" s="0">
-        <v>0.78000000000000003</v>
+        <v>1.0700000000000001</v>
       </c>
       <c r="G2" s="0">
-        <v>0.84999999999999998</v>
+        <v>2.1099999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -248,16 +248,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.22</v>
+        <v>0.23000000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>0.25</v>
+        <v>0.26000000000000001</v>
       </c>
       <c r="E3" s="0">
         <v>0.28999999999999998</v>
       </c>
       <c r="F3" s="0">
-        <v>0.33000000000000002</v>
+        <v>0.34000000000000002</v>
       </c>
       <c r="G3" s="0">
         <v>0.38</v>
@@ -274,16 +274,16 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E4" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="F4" s="0">
         <v>0.059999999999999998</v>
       </c>
-      <c r="F4" s="0">
+      <c r="G4" s="0">
         <v>0.070000000000000007</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0.089999999999999997</v>
       </c>
     </row>
     <row r="5">
@@ -294,7 +294,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D5" s="0">
         <v>0.040000000000000001</v>
@@ -320,16 +320,16 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="E6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="F6" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="G6" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -340,19 +340,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D7" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="E7" s="0">
         <v>0.059999999999999998</v>
       </c>
-      <c r="E7" s="0">
-        <v>0.089999999999999997</v>
-      </c>
       <c r="F7" s="0">
-        <v>0.12</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="G7" s="0">
-        <v>0.14000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -407,16 +407,16 @@
         <v>0.25</v>
       </c>
       <c r="D2" s="0">
-        <v>0.38</v>
+        <v>0.35999999999999999</v>
       </c>
       <c r="E2" s="0">
-        <v>0.57999999999999996</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F2" s="0">
-        <v>1.04</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="G2" s="0">
-        <v>2.0299999999999998</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="3">
@@ -430,16 +430,16 @@
         <v>0.23000000000000001</v>
       </c>
       <c r="D3" s="0">
-        <v>0.26000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="E3" s="0">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F3" s="0">
-        <v>0.32000000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="G3" s="0">
-        <v>0.35999999999999999</v>
+        <v>0.34000000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -453,16 +453,16 @@
         <v>0.02</v>
       </c>
       <c r="D4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="E4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="F4" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="G4" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.040000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -476,16 +476,16 @@
         <v>0.02</v>
       </c>
       <c r="D5" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="E5" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="G5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -505,10 +505,10 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="G6" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
     </row>
     <row r="7">
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D7" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="E7" s="0">
         <v>0.059999999999999998</v>
       </c>
-      <c r="E7" s="0">
-        <v>0.089999999999999997</v>
-      </c>
       <c r="F7" s="0">
-        <v>0.12</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="G7" s="0">
-        <v>0.14000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.23999999999999999</v>
+        <v>0.23000000000000001</v>
       </c>
       <c r="D2" s="0">
-        <v>0.33000000000000002</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="E2" s="0">
-        <v>0.42999999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="F2" s="0">
-        <v>0.58999999999999997</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="G2" s="0">
-        <v>0.89000000000000001</v>
+        <v>0.68000000000000005</v>
       </c>
     </row>
     <row r="3">
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.22</v>
+        <v>0.20999999999999999</v>
       </c>
       <c r="D3" s="0">
-        <v>0.23999999999999999</v>
+        <v>0.23000000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>0.26000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F3" s="0">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G3" s="0">
-        <v>0.34000000000000002</v>
+        <v>0.32000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -655,13 +655,13 @@
         <v>0.01</v>
       </c>
       <c r="D5" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="0">
         <v>0.02</v>
       </c>
       <c r="F5" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="G5" s="0">
         <v>0.029999999999999999</v>
@@ -675,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D6" s="0">
         <v>0.02</v>
       </c>
       <c r="E6" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="G6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="7">
@@ -698,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D7" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="E7" s="0">
         <v>0.059999999999999998</v>
       </c>
-      <c r="E7" s="0">
-        <v>0.089999999999999997</v>
-      </c>
       <c r="F7" s="0">
-        <v>0.12</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="G7" s="0">
-        <v>0.14000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AC3D_Hybrid/hybrid_ac3d/MBE3d_results/ah3d_relL2_tables.xlsx
+++ b/AC3D_Hybrid/hybrid_ac3d/MBE3d_results/ah3d_relL2_tables.xlsx
@@ -225,7 +225,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.26000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="D2" s="0">
         <v>0.41999999999999998</v>
@@ -234,10 +234,10 @@
         <v>0.60999999999999999</v>
       </c>
       <c r="F2" s="0">
-        <v>1.0700000000000001</v>
+        <v>1</v>
       </c>
       <c r="G2" s="0">
-        <v>2.1099999999999999</v>
+        <v>1.8899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -248,19 +248,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
+        <v>0.17999999999999999</v>
+      </c>
+      <c r="D3" s="0">
         <v>0.23000000000000001</v>
       </c>
-      <c r="D3" s="0">
-        <v>0.26000000000000001</v>
-      </c>
       <c r="E3" s="0">
-        <v>0.28999999999999998</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F3" s="0">
-        <v>0.34000000000000002</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="G3" s="0">
-        <v>0.38</v>
+        <v>0.39000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -274,16 +274,16 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="D4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F4" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="G4" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.089999999999999997</v>
       </c>
     </row>
     <row r="5">
@@ -297,16 +297,16 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="E5" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="F5" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="G5" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -317,19 +317,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="D6" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="E6" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.13</v>
       </c>
       <c r="F6" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.17999999999999999</v>
       </c>
       <c r="G6" s="0">
-        <v>0.12</v>
+        <v>0.23000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -340,19 +340,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="D7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="E7" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="F7" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="G7" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -404,19 +404,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.25</v>
+        <v>0.20999999999999999</v>
       </c>
       <c r="D2" s="0">
-        <v>0.35999999999999999</v>
+        <v>0.34000000000000002</v>
       </c>
       <c r="E2" s="0">
-        <v>0.51000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="0">
-        <v>0.82999999999999996</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="G2" s="0">
-        <v>1.51</v>
+        <v>1.5600000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -427,19 +427,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.23000000000000001</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="D3" s="0">
+        <v>0.20999999999999999</v>
+      </c>
+      <c r="E3" s="0">
         <v>0.25</v>
       </c>
-      <c r="E3" s="0">
-        <v>0.28000000000000003</v>
-      </c>
       <c r="F3" s="0">
-        <v>0.31</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G3" s="0">
-        <v>0.34000000000000002</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="4">
@@ -459,10 +459,10 @@
         <v>0.029999999999999999</v>
       </c>
       <c r="F4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="G4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="5">
@@ -473,19 +473,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D5" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="F5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="G5" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.089999999999999997</v>
       </c>
     </row>
     <row r="6">
@@ -496,19 +496,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D6" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E6" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F6" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="G6" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="D7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="E7" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="F7" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="G7" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.23000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="D2" s="0">
-        <v>0.29999999999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E2" s="0">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F2" s="0">
         <v>0.48999999999999999</v>
       </c>
       <c r="G2" s="0">
-        <v>0.68000000000000005</v>
+        <v>0.69999999999999996</v>
       </c>
     </row>
     <row r="3">
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.20999999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="D3" s="0">
-        <v>0.23000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="F3" s="0">
         <v>0.25</v>
       </c>
-      <c r="F3" s="0">
-        <v>0.28000000000000003</v>
-      </c>
       <c r="G3" s="0">
-        <v>0.32000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -655,16 +655,16 @@
         <v>0.01</v>
       </c>
       <c r="D5" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="0">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="F5" s="0">
-        <v>0.02</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="G5" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="6">
@@ -675,16 +675,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D6" s="0">
         <v>0.02</v>
       </c>
       <c r="E6" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="F6" s="0">
         <v>0.040000000000000001</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0.050000000000000003</v>
       </c>
       <c r="G6" s="0">
         <v>0.050000000000000003</v>
@@ -698,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="D7" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="E7" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="F7" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="G7" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>

--- a/AC3D_Hybrid/hybrid_ac3d/MBE3d_results/ah3d_relL2_tables.xlsx
+++ b/AC3D_Hybrid/hybrid_ac3d/MBE3d_results/ah3d_relL2_tables.xlsx
@@ -225,19 +225,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.25</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="D2" s="0">
-        <v>0.41999999999999998</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="E2" s="0">
-        <v>0.60999999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="F2" s="0">
-        <v>1</v>
+        <v>4.3200000000000003</v>
       </c>
       <c r="G2" s="0">
-        <v>1.8899999999999999</v>
+        <v>8.2300000000000004</v>
       </c>
     </row>
     <row r="3">
@@ -248,19 +248,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.17999999999999999</v>
+        <v>0.33000000000000002</v>
       </c>
       <c r="D3" s="0">
-        <v>0.23000000000000001</v>
+        <v>0.45000000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>0.28000000000000003</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F3" s="0">
-        <v>0.33000000000000002</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="G3" s="0">
-        <v>0.39000000000000001</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="4">
@@ -271,19 +271,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="D4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="E4" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.13</v>
       </c>
       <c r="F4" s="0">
-        <v>0.070000000000000007</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="G4" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.20999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -294,19 +294,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="D5" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="E5" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="F5" s="0">
-        <v>0.11</v>
+        <v>0.14999999999999999</v>
       </c>
       <c r="G5" s="0">
-        <v>0.14000000000000001</v>
+        <v>0.17999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -317,19 +317,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.059999999999999998</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="D6" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="E6" s="0">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="F6" s="0">
         <v>0.13</v>
       </c>
-      <c r="F6" s="0">
-        <v>0.17999999999999999</v>
-      </c>
       <c r="G6" s="0">
-        <v>0.23000000000000001</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -340,19 +340,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="D7" s="0">
         <v>0.059999999999999998</v>
       </c>
-      <c r="D7" s="0">
-        <v>0.080000000000000002</v>
-      </c>
       <c r="E7" s="0">
-        <v>0.13</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="F7" s="0">
-        <v>0.17000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G7" s="0">
-        <v>0.22</v>
+        <v>0.14999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -404,19 +404,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.20999999999999999</v>
+        <v>0.46000000000000002</v>
       </c>
       <c r="D2" s="0">
-        <v>0.34000000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="E2" s="0">
-        <v>0.5</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F2" s="0">
-        <v>0.83999999999999997</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G2" s="0">
-        <v>1.5600000000000001</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -427,19 +427,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.17000000000000001</v>
+        <v>0.42999999999999999</v>
       </c>
       <c r="D3" s="0">
-        <v>0.20999999999999999</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="E3" s="0">
-        <v>0.25</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F3" s="0">
-        <v>0.28999999999999998</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>0.33000000000000002</v>
+        <v>0.68999999999999995</v>
       </c>
     </row>
     <row r="4">
@@ -450,19 +450,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.02</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="D4" s="0">
-        <v>0.02</v>
+        <v>0.040000000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F4" s="0">
-        <v>0.040000000000000001</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="G4" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.089999999999999997</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         <v>0.070000000000000007</v>
       </c>
       <c r="G5" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.080000000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -502,13 +502,13 @@
         <v>0.040000000000000001</v>
       </c>
       <c r="E6" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="F6" s="0">
         <v>0.059999999999999998</v>
       </c>
-      <c r="F6" s="0">
+      <c r="G6" s="0">
         <v>0.080000000000000002</v>
-      </c>
-      <c r="G6" s="0">
-        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -519,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="D7" s="0">
         <v>0.059999999999999998</v>
       </c>
-      <c r="D7" s="0">
-        <v>0.080000000000000002</v>
-      </c>
       <c r="E7" s="0">
-        <v>0.13</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="F7" s="0">
-        <v>0.17000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G7" s="0">
-        <v>0.22</v>
+        <v>0.14999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.19</v>
+        <v>0.44</v>
       </c>
       <c r="D2" s="0">
-        <v>0.28000000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E2" s="0">
-        <v>0.37</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F2" s="0">
-        <v>0.48999999999999999</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="G2" s="0">
-        <v>0.69999999999999996</v>
+        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="3">
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="D3" s="0">
-        <v>0.19</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E3" s="0">
-        <v>0.22</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F3" s="0">
-        <v>0.25</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="G3" s="0">
-        <v>0.28999999999999998</v>
+        <v>0.72999999999999998</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0.01</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="D4" s="0">
         <v>0.01</v>
@@ -652,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="0">
         <v>0.02</v>
       </c>
       <c r="E5" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="F5" s="0">
         <v>0.029999999999999999</v>
       </c>
-      <c r="F5" s="0">
-        <v>0.040000000000000001</v>
-      </c>
       <c r="G5" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.029999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -675,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="0">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D6" s="0">
         <v>0.02</v>
       </c>
       <c r="E6" s="0">
+        <v>0.02</v>
+      </c>
+      <c r="F6" s="0">
         <v>0.029999999999999999</v>
       </c>
-      <c r="F6" s="0">
+      <c r="G6" s="0">
         <v>0.040000000000000001</v>
-      </c>
-      <c r="G6" s="0">
-        <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="7">
@@ -698,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="D7" s="0">
         <v>0.059999999999999998</v>
       </c>
-      <c r="D7" s="0">
-        <v>0.080000000000000002</v>
-      </c>
       <c r="E7" s="0">
-        <v>0.13</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="F7" s="0">
-        <v>0.17000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G7" s="0">
-        <v>0.22</v>
+        <v>0.14999999999999999</v>
       </c>
     </row>
   </sheetData>
